--- a/Analise2.31.03.24.xlsx
+++ b/Analise2.31.03.24.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7110"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respostas e Códificação Nível 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Categorização e Refinamento dos" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Planilha1" sheetId="3" r:id="rId6"/>
+    <sheet name="Respostas e Códificação Nível 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Categorização e Refinamento dos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="IsFhcWUsPAokPhzZAGT0b9iU5BkGw1z73gQPoDaIipw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataChecksum="IsFhcWUsPAokPhzZAGT0b9iU5BkGw1z73gQPoDaIipw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="133">
   <si>
     <t>Pergunta</t>
   </si>
@@ -991,415 +993,727 @@
     <t>Entrevistado</t>
   </si>
   <si>
-    <t>Especificação da Tarefa e do Sistema (e1,e2,e3,e4,e5)</t>
-  </si>
-  <si>
-    <t>A gente escreve mal as informações da tarefas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição das Tarefas Insuficiente(e1,e2,e3,e4,e5)
-</t>
-  </si>
-  <si>
-    <t>Forma de apresentação Deficiente por haver poucas informações na tarefa</t>
-  </si>
-  <si>
-    <t>Forma de Apresentação das Tarefas Deficiente(e1,e2,e3,e4,e5)</t>
-  </si>
-  <si>
-    <t>Forma de apresentação e descrição das tarefas é deficiente para o ambiente remoto</t>
-  </si>
-  <si>
-    <t>Descrição das Tarefas Deficiente(e1,e5)</t>
-  </si>
-  <si>
-    <t>Poucas Informações nas tarefas</t>
-  </si>
-  <si>
-    <t>Dificuldade em Entender a Tarefa (e4,e5)</t>
-  </si>
-  <si>
-    <t>descrição da tarefa bem básica</t>
-  </si>
-  <si>
-    <t>Falta de Documentação(e2,e5)</t>
-  </si>
-  <si>
-    <t>Forma de apresentação e descrição ainda não é o ideal</t>
-  </si>
-  <si>
-    <t>descrição das tarefas resumida para pessoa trabalhar sozinha</t>
-  </si>
-  <si>
-    <t>descrição da tarefa muito óbvia pra quem a criou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição das tarefas muito textual
-</t>
-  </si>
-  <si>
-    <t>desenvolvedor que recebe a tarefa, não recebe com todas as informações necessárias</t>
-  </si>
-  <si>
-    <t>Tarefas não possuem telas ou vídeos, mesmo o sistema permitindo</t>
-  </si>
-  <si>
-    <t>falta de regras de negócios nas tarefas necessárias para sua implementação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forma de descrição das tarefas pode melhorar
-</t>
-  </si>
-  <si>
-    <t>líder descreve as tarefas de forma sucinta</t>
-  </si>
-  <si>
-    <t>Maior dificuldade é o detalhamento das descrições da tarefa</t>
-  </si>
-  <si>
-    <t>Dificuldades no Ambiente Remoto</t>
-  </si>
-  <si>
-    <t>Dificuldades no Ambiente Remoto(e1,e2,e3)</t>
-  </si>
-  <si>
-    <t>Receio do remoto por não poder tirar uma dúvida rápida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipe com Horários Assíncronos(e1,e2)
-</t>
-  </si>
-  <si>
-    <t>Cada desenvolvedor tem um horário</t>
-  </si>
-  <si>
-    <t>Receio em tirar dúvidas remotamente (e3)</t>
-  </si>
-  <si>
-    <t>Forma de apresentação das tarefas é deficiente pelo fato dos desenvolvedores trabalharem em horários assíncronos</t>
-  </si>
-  <si>
-    <t>Recursos Disponíveis</t>
-  </si>
-  <si>
-    <t>Recursos Disponíveis(e2,e3)</t>
-  </si>
-  <si>
-    <t>Problemas Inesperados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problemas Técnicos Inesperados(e2, e3)
-</t>
-  </si>
-  <si>
-    <t>Mesmo tirando dúvidas quando bota a mão na massa ocorrem problemas inesperados</t>
-  </si>
-  <si>
-    <t>Limitações de hardware (e2)</t>
-  </si>
-  <si>
-    <t>Problema Técnico</t>
-  </si>
-  <si>
-    <t>Limitações de Hardware</t>
-  </si>
-  <si>
     <t>Definição de Processo</t>
   </si>
   <si>
-    <t>Definição de Processo(e2,e5)</t>
-  </si>
-  <si>
-    <t>Não há um processo definido para apresentação das tarefas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta de Processo de Trabalho Definido(e2)
-</t>
-  </si>
-  <si>
-    <t>Processo de apresentação das tarefas preliminar</t>
-  </si>
-  <si>
-    <t>Falta de definição de papéis (e5)</t>
-  </si>
-  <si>
-    <t>Líder do projeto valida as tarefas</t>
-  </si>
-  <si>
-    <t>Líder Possui Muitas Funções(e5)</t>
-  </si>
-  <si>
-    <t>Líder atende professores e coordenadores</t>
-  </si>
-  <si>
-    <t>tarefas são colocadas na sprint atual pelo lider</t>
-  </si>
-  <si>
-    <t>falta de um papel na equipe de testador</t>
-  </si>
-  <si>
-    <t>falta de alguém para testar tarefas</t>
-  </si>
-  <si>
-    <t>Sobrecarga de Tarefas</t>
-  </si>
-  <si>
-    <t>Sobrecarga de Tarefas(e2,e5)</t>
-  </si>
-  <si>
-    <t>Lider sobrecarregado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interrupções por Novas Tarefas(e2)
-</t>
-  </si>
-  <si>
-    <t>Interrupções</t>
-  </si>
-  <si>
-    <t>Líder Sobrecarregado(e5)</t>
-  </si>
-  <si>
     <t>Necessidades de Comunicação</t>
   </si>
   <si>
-    <t>Necessidades de Comunicação(e1,e2,e3,e4,e5)</t>
-  </si>
-  <si>
-    <t>Falta de Feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comunicação da Equipe Deficiente(e1,e2,e3)
-</t>
-  </si>
-  <si>
-    <t>Dificuldade de retorno em tempo hábil</t>
-  </si>
-  <si>
-    <t>Necessidade de Tirar Dúvidas(e2,e4,e5)</t>
-  </si>
-  <si>
-    <t>retorno as vezes demorado</t>
-  </si>
-  <si>
-    <t>Falta de Feedback(e1,e5)</t>
-  </si>
-  <si>
-    <t>demora de feedback das tarefas implementadas</t>
-  </si>
-  <si>
-    <t>Falta de Entrosamento com equipe</t>
-  </si>
-  <si>
-    <t>não ter uma comunicação tão efetiva na daily</t>
-  </si>
-  <si>
-    <t>discussão de tarefas atual ineficiente</t>
-  </si>
-  <si>
-    <t>Comunicação atual deficiente</t>
-  </si>
-  <si>
-    <t>Os pares pouco se comunicam</t>
-  </si>
-  <si>
-    <t>Comunicação da equipe é razoável</t>
-  </si>
-  <si>
-    <t>Comunicação as vezes fica prejudicada</t>
-  </si>
-  <si>
-    <t>Nem todos os desenvolvedores respondem no grupo</t>
-  </si>
-  <si>
-    <t>Desenvolvedores não olham com frequência o grupo</t>
-  </si>
-  <si>
-    <t>Desenvolvedores não acompanham as agendas da equipe</t>
-  </si>
-  <si>
-    <t>Desenvolvedores não tiram dúvidas</t>
-  </si>
-  <si>
-    <t>falta de comunicação direta com o cliente</t>
-  </si>
-  <si>
-    <t>necessidade de perguntar ao membro mais experiente</t>
-  </si>
-  <si>
-    <t>necessidade de orientação por ter pouca experiência</t>
-  </si>
-  <si>
     <t>Conhecimento Técnico</t>
   </si>
   <si>
-    <t>Conhecimento Técnico(e4)</t>
-  </si>
-  <si>
-    <t>Falta de conhecimento técnico por ser novato</t>
-  </si>
-  <si>
-    <t>Falta de Conhecimento Técnico(e4)</t>
-  </si>
-  <si>
-    <t>questão técnica é uma barreira</t>
-  </si>
-  <si>
-    <t>Experiência Prática</t>
-  </si>
-  <si>
-    <t>Experiência Prática(e5)</t>
-  </si>
-  <si>
-    <t>falta de experiência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta de Experiência(e5)
-</t>
-  </si>
-  <si>
-    <t>muita dificuldade para compreender o código</t>
-  </si>
-  <si>
-    <t>Dificuldade de Compreensão do Código(e5)</t>
-  </si>
-  <si>
-    <t>código diferente de experiências anteriores</t>
-  </si>
-  <si>
-    <t>Comportamento Pessoal</t>
-  </si>
-  <si>
-    <t>Comportamento Pessoal(e2)</t>
-  </si>
-  <si>
-    <t>Falta de Motivação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta de Motivação(e2)
-</t>
-  </si>
-  <si>
-    <t>Distrações</t>
-  </si>
-  <si>
-    <t>Distração(e2)</t>
-  </si>
-  <si>
-    <t>Relatório de Compatibilidade para Analise2.03.03.xls</t>
-  </si>
-  <si>
-    <t>Executado em 06/03/2024 23:42</t>
-  </si>
-  <si>
-    <t>Se a pasta de trabalho for salva em um formato de arquivo anterior ou aberta em uma versão anterior do Microsoft Excel, os recursos listados não estarão disponíveis.</t>
-  </si>
-  <si>
-    <t>Perda insignificante de fidelidade</t>
-  </si>
-  <si>
-    <t>Núm. de ocorrências</t>
-  </si>
-  <si>
-    <t>Versão</t>
-  </si>
-  <si>
-    <t>Algumas células ou alguns estilos desta pasta de trabalho contêm formatação para a qual não há suporte no formato de arquivo selecionado. Esses formatos serão convertidos no formato mais próximo disponível.</t>
-  </si>
-  <si>
-    <t>Excel 97-2003</t>
+    <t>NÃO IDENTIFICADO</t>
+  </si>
+  <si>
+    <t>dificuldade em entender a regra de negócio para criar testes</t>
+  </si>
+  <si>
+    <t>simulação do comportamento do usuário</t>
+  </si>
+  <si>
+    <t>dificuldade de entender código programado</t>
+  </si>
+  <si>
+    <t>Recursos disponíveis</t>
+  </si>
+  <si>
+    <t>softwares para testes em códigos legados não são acessíveis</t>
+  </si>
+  <si>
+    <t>dificuldade para montagem do ambiente de testes</t>
+  </si>
+  <si>
+    <t>incompatibilidades de sistemas operacionais</t>
+  </si>
+  <si>
+    <t>falta de uma equipe de suporte para testes</t>
+  </si>
+  <si>
+    <t>softwares disponiveis para testes de códigos legados são ineficientes</t>
+  </si>
+  <si>
+    <t>dificuldade em entender o processo de teste</t>
+  </si>
+  <si>
+    <t>testes depreciados em função do prazo</t>
+  </si>
+  <si>
+    <t>processo não padronizado na organização</t>
+  </si>
+  <si>
+    <t>processo não totalmente estruturado</t>
+  </si>
+  <si>
+    <t>revisão do código por outro membro da equipe</t>
+  </si>
+  <si>
+    <t>eventuais dificuldades para conseguir colaboração</t>
+  </si>
+  <si>
+    <t>dificuldade em escrever testes tdd</t>
+  </si>
+  <si>
+    <t>dificuldade em entender o paradigma tdd</t>
+  </si>
+  <si>
+    <t>falta de cultura/experiência em testes tdd</t>
+  </si>
+  <si>
+    <t>regra de negócio mal especificada (E1)</t>
+  </si>
+  <si>
+    <t>simulação do comportamento do usuário (E1)</t>
+  </si>
+  <si>
+    <t>dificuldade em compreender código escrito (E2, E4)</t>
+  </si>
+  <si>
+    <t>software disponível ineficiente (E2, E4)</t>
+  </si>
+  <si>
+    <t>falta de ambiente pré- configurado para testes(E4,E6)</t>
+  </si>
+  <si>
+    <t>falta de equipe de suporte para testes (E4)</t>
+  </si>
+  <si>
+    <t>processo não padronizado (E1, E2, E3, E4, E5, E6)</t>
+  </si>
+  <si>
+    <t>testes preteridos em função do prazo (E2,E3, E4, E6)</t>
+  </si>
+  <si>
+    <t>dificuldade em entender o processo de teste (E1, E2, E3, E6)</t>
+  </si>
+  <si>
+    <t>dificuldades para conseguir colaboração (E1)</t>
+  </si>
+  <si>
+    <t>falta de conhecimento em TDD (E1,E3,E5)</t>
+  </si>
+  <si>
+    <t>falta de experiência em tdd (E1,E3,E5)</t>
+  </si>
+  <si>
+    <t>dificuldades em escrever testes TDD, dificuldade em entender a regra de negócio para criar testes</t>
+  </si>
+  <si>
+    <t>falta de experiência em tdd, dificuldade em entender o paradigma tdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eventuais dificuldades para conseguir colaboração, </t>
+  </si>
+  <si>
+    <t>dificuldade em entender o processo de teste, processo não padronizado na organização, simulação do comportamento do usuário, processo não totalmente estruturado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> E4</t>
+    </r>
+  </si>
+  <si>
+    <t>softwares para testes em códigos legados não são acessíveis, softwares disponiveis para testes de códigos legados são ineficientes</t>
+  </si>
+  <si>
+    <t>processo não padronizado na organização, dificuldade em entender o processo de teste</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, E6</t>
+    </r>
+  </si>
+  <si>
+    <t>processo não padronizado na organização, processo não totalmente estruturado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E3</t>
+    </r>
+  </si>
+  <si>
+    <t>testes depreciados em função do prazo, dificuldade em entender o paradigma tdd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> E6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,E5</t>
+    </r>
+  </si>
+  <si>
+    <t>dificuldade em entender o processo de teste, falta de experiência em testes tdd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> E5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>E4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,E6</t>
+    </r>
+  </si>
+  <si>
+    <t>dificuldade para montagem do ambiente de testes, incompatibilidades de sistemas operacionais</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E2, E3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> E5</t>
+    </r>
+  </si>
+  <si>
+    <t>falta de uma equipe de suporte para testes, dificuldade para montagem do ambiente de testes, processo não padronizado na organização, dificuldade de entender código programado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, E6</t>
+    </r>
+  </si>
+  <si>
+    <t>dificuldade em escrever testes tdd, falta de experiência em tdd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,E6</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1415,18 +1729,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFCC99"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
-    <border/>
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1441,6 +1780,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1452,14 +1792,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1468,200 +1813,142 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1851,29 +2138,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="51.0"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
-    <col customWidth="1" min="3" max="6" width="56.0"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="56.0"/>
-    <col customWidth="1" min="8" max="8" width="56.0"/>
-    <col customWidth="1" min="9" max="26" width="13.38"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="6" width="56" customWidth="1"/>
+    <col min="7" max="7" width="56" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="56" customWidth="1"/>
+    <col min="9" max="26" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="25.5" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:26" ht="25.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,55 +2206,67 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" ht="409.5" customHeight="1">
+    <row r="3" spans="1:26" ht="409.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="91.5" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:26" ht="91.5" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="409.5" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="409.5" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1974,179 +2275,239 @@
       <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="18.0" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:26" ht="28.5">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="409.5" customHeight="1">
+      <c r="B6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="409.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="55.5" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:26" ht="57">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="409.5" customHeight="1">
+      <c r="B8" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="409.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="18.0" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:26" ht="57.75">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="409.5" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="409.5" customHeight="1">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" ht="18.0" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:26" ht="18" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" ht="409.5" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="B12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="409.5" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" ht="18.0" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:26" ht="18" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" ht="409.5" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="409.5" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2158,39 +2519,51 @@
       <c r="D15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" ht="48.0" customHeight="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:26" ht="48" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="409.5" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="B16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="409.5" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2202,39 +2575,51 @@
       <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" ht="18.0" customHeight="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="B18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3204,913 +3589,684 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.38"/>
-    <col customWidth="1" min="2" max="2" width="68.63"/>
-    <col customWidth="1" min="3" max="3" width="14.38"/>
-    <col customWidth="1" min="4" max="4" width="13.38"/>
-    <col customWidth="1" min="5" max="5" width="58.38"/>
-    <col customWidth="1" min="6" max="25" width="13.38"/>
-    <col customWidth="1" min="26" max="26" width="8.0"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="25" width="13.42578125" customWidth="1"/>
+    <col min="26" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-    </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="B4" s="20" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" ht="31.5" customHeight="1">
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:26" ht="23.25">
+      <c r="B5" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C5" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:26" ht="18">
+      <c r="B6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+    </row>
+    <row r="7" spans="1:26" ht="18">
+      <c r="B7" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B8" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+    </row>
+    <row r="9" spans="1:26" ht="23.25">
+      <c r="B9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B10" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75">
+      <c r="B11" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B12" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" customHeight="1">
+      <c r="B13" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:26" ht="28.5" customHeight="1">
+      <c r="B14" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:26" ht="23.25">
+      <c r="B15" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" ht="17.25" customHeight="1">
-      <c r="B5" s="23" t="s">
+      <c r="C15" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:26" ht="18">
+      <c r="B16" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+    </row>
+    <row r="17" spans="2:11" ht="18.75" customHeight="1">
+      <c r="B17" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="2:11" ht="14.25" customHeight="1">
+      <c r="B18" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="2:11" ht="14.25" customHeight="1">
+      <c r="B19" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="2:11" ht="23.25">
+      <c r="B20" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B21" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="2:11" ht="18">
+      <c r="B22" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="24" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="2:11" ht="23.25">
+      <c r="B23" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" ht="28.5" customHeight="1">
-      <c r="B6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" ht="28.5" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" ht="28.5" customHeight="1">
-      <c r="B14" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" ht="28.5" customHeight="1">
-      <c r="B16" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="12" t="s">
+      <c r="C23" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="2:11" ht="14.25" customHeight="1">
+      <c r="B24" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="16" t="s">
+      <c r="C24" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="2:11" ht="18">
+      <c r="B25" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="31.5" customHeight="1">
-      <c r="B22" s="27" t="s">
+      <c r="C25" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="2:11" ht="14.25" customHeight="1">
+      <c r="B26" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" ht="25.5" customHeight="1">
-      <c r="B25" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" ht="31.5" customHeight="1">
-      <c r="B27" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="B28" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c r="B29" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="19"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" ht="31.5" customHeight="1">
-      <c r="B33" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="B34" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" ht="17.25" customHeight="1">
-      <c r="B36" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="34" t="s">
+      <c r="C26" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" ht="31.5" customHeight="1">
-      <c r="B44" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="B45" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="B47" s="21"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" ht="31.5" customHeight="1">
-      <c r="B48" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="B53" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="B54" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="B55" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="B56" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="B58" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="21"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="2:11" ht="31.5" customHeight="1">
+      <c r="B27" s="24"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B28" s="24"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="2:11" ht="16.5" customHeight="1">
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="2:11" ht="14.25" customHeight="1">
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="4:4" ht="31.5" customHeight="1">
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="4:4" ht="16.5" customHeight="1">
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="4:4" ht="17.25" customHeight="1">
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="4:4" ht="13.5" customHeight="1">
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="4:4" ht="31.5" customHeight="1">
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="4:4" ht="16.5" customHeight="1">
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="4:4" ht="14.25" customHeight="1">
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="4:4" ht="31.5" customHeight="1">
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="4:6" ht="15.75" customHeight="1">
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="4:6" ht="15.75" customHeight="1">
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" spans="4:6" ht="15.75" customHeight="1">
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="4:6" ht="15.75" customHeight="1">
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D58" s="19"/>
       <c r="E58" s="21"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="B59" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="B60" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="B61" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="B62" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="B63" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="B64" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="B65" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-    </row>
-    <row r="68" ht="31.5" customHeight="1">
-      <c r="B68" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" ht="18.0" customHeight="1">
-      <c r="B69" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-    </row>
-    <row r="70" ht="18.0" customHeight="1">
-      <c r="B70" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="21"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D63" s="19"/>
+    </row>
+    <row r="64" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D66" s="19"/>
+    </row>
+    <row r="67" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D67" s="19"/>
+    </row>
+    <row r="68" spans="4:6" ht="31.5" customHeight="1">
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="4:6" ht="18" customHeight="1">
+      <c r="D69" s="19"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="4:6" ht="18" customHeight="1">
+      <c r="D70" s="19"/>
       <c r="E70" s="21"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="B71" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="B72" s="21"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-    </row>
-    <row r="73" ht="31.5" customHeight="1">
-      <c r="B73" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="G73" s="41"/>
-    </row>
-    <row r="74" ht="15.0" customHeight="1">
-      <c r="B74" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="B75" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="B76" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" ht="18.0" customHeight="1">
-      <c r="B77" s="21"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-    </row>
-    <row r="78" ht="18.75" customHeight="1">
-      <c r="B78" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c r="B79" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="B80" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="25" t="s">
-        <v>171</v>
-      </c>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="4:6" ht="31.5" customHeight="1">
+      <c r="D73" s="19"/>
+      <c r="F73" s="23"/>
+    </row>
+    <row r="74" spans="4:6" ht="15" customHeight="1">
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D76" s="19"/>
+    </row>
+    <row r="77" spans="4:6" ht="18" customHeight="1">
+      <c r="D77" s="19"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+    </row>
+    <row r="78" spans="4:6" ht="18.75" customHeight="1">
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="4:6" ht="16.5" customHeight="1">
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="4:6" ht="14.25" customHeight="1">
+      <c r="D80" s="19"/>
     </row>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
@@ -4128,70 +4284,64 @@
     <row r="94" ht="15.75" customHeight="1"/>
     <row r="95" ht="15.75" customHeight="1"/>
     <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="B99" s="42"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1">
-      <c r="B104" s="42"/>
-    </row>
-    <row r="105" ht="12.75" customHeight="1">
-      <c r="B105" s="42"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-    </row>
-    <row r="108" ht="15.0" customHeight="1">
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-    </row>
-    <row r="114" ht="15.0" customHeight="1">
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="E116" s="44"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="97" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="98" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="99" spans="5:7" ht="12.75" customHeight="1"/>
+    <row r="100" spans="5:7" ht="15.75" customHeight="1">
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+    </row>
+    <row r="101" spans="5:7" ht="14.25" customHeight="1">
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+    </row>
+    <row r="102" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="103" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="104" spans="5:7" ht="12.75" customHeight="1"/>
+    <row r="105" spans="5:7" ht="12.75" customHeight="1"/>
+    <row r="106" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="107" spans="5:7" ht="15.75" customHeight="1">
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+    </row>
+    <row r="108" spans="5:7" ht="15" customHeight="1">
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+    </row>
+    <row r="109" spans="5:7" ht="14.25" customHeight="1">
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+    </row>
+    <row r="110" spans="5:7" ht="14.25" customHeight="1">
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+    </row>
+    <row r="111" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="112" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="113" spans="5:7" ht="15.75" customHeight="1">
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+    </row>
+    <row r="114" spans="5:7" ht="15" customHeight="1">
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+    </row>
+    <row r="115" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="116" spans="5:7" ht="14.25" customHeight="1">
+      <c r="E116" s="26"/>
+    </row>
+    <row r="117" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="118" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="119" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="120" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="121" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="122" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="123" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="124" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="125" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="126" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="127" spans="5:7" ht="15.75" customHeight="1"/>
+    <row r="128" spans="5:7" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>
@@ -5065,1113 +5215,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="1.13"/>
-    <col customWidth="1" min="2" max="2" width="64.38"/>
-    <col customWidth="1" min="3" max="3" width="1.63"/>
-    <col customWidth="1" min="4" max="4" width="5.63"/>
-    <col customWidth="1" min="5" max="6" width="16.0"/>
-    <col customWidth="1" min="7" max="26" width="8.0"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="B1" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="B2" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" ht="38.25" customHeight="1">
-      <c r="B4" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-    </row>
-    <row r="6" ht="25.5" customHeight="1">
-      <c r="B6" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" ht="39.0" customHeight="1">
-      <c r="B8" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51">
-        <v>7.0</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <mergeCells count="19">
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E2:K3"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:K8"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E24:K24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>